--- a/baseline.xlsx
+++ b/baseline.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\muScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80978E4-4EB7-4872-BAFD-4058C8F7E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22941D8B-5D54-478B-9DEC-538C915DD5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="340" yWindow="340" windowWidth="26050" windowHeight="17270" activeTab="3" xr2:uid="{0CACCBC1-43B1-4F17-AD71-A4B1B34E1C99}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="26050" windowHeight="17270" activeTab="3" xr2:uid="{0CACCBC1-43B1-4F17-AD71-A4B1B34E1C99}"/>
   </bookViews>
   <sheets>
     <sheet name="评分信息" sheetId="4" r:id="rId1"/>
     <sheet name="NL" sheetId="3" r:id="rId2"/>
     <sheet name="LS" sheetId="2" r:id="rId3"/>
-    <sheet name="血清 " sheetId="1" r:id="rId4"/>
+    <sheet name="血清" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">评分信息!#REF!</definedName>
@@ -5754,7 +5754,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
